--- a/templates/AutomationOrg/Rework Work Order Complete Flow without Reversals.xlsx
+++ b/templates/AutomationOrg/Rework Work Order Complete Flow without Reversals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462514A8-B187-4213-8636-B011FEC07A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A861D39-B2F4-41FA-B58B-E2AE515874B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Site</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>WO Receipt Traveler</t>
-  </si>
-  <si>
-    <t>8/16/2021</t>
   </si>
   <si>
     <t>Inventory Location ID</t>
@@ -625,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -633,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -686,105 +683,105 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
-        <v>48</v>
-      </c>
       <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
-        <v>53</v>
-      </c>
       <c r="R1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
       <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
         <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
         <v>49</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -792,49 +789,49 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
       <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
         <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -922,7 +919,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -992,48 +989,45 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
